--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1747"/>
+  <dimension ref="A1:G1694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45238,10 +45238,8 @@
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1646">
@@ -45267,10 +45265,8 @@
       </c>
       <c r="E1646" t="inlineStr"/>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1647">
@@ -45296,10 +45292,8 @@
       </c>
       <c r="E1647" t="inlineStr"/>
       <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1648">
@@ -45317,10 +45311,8 @@
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr"/>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1648" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1649">
@@ -45354,10 +45346,8 @@
           <t>1.4M</t>
         </is>
       </c>
-      <c r="G1649" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1649" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1650">
@@ -45391,10 +45381,8 @@
           <t>1.42M</t>
         </is>
       </c>
-      <c r="G1650" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1650" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1651">
@@ -45424,10 +45412,8 @@
           <t>-4%</t>
         </is>
       </c>
-      <c r="G1651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1652">
@@ -45457,10 +45443,8 @@
           <t>-5.3%</t>
         </is>
       </c>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1652" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1653">
@@ -45494,10 +45478,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1654">
@@ -45531,10 +45513,8 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G1654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1655">
@@ -45568,10 +45548,8 @@
           <t>1890.0K</t>
         </is>
       </c>
-      <c r="G1655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1656">
@@ -45601,10 +45579,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1657">
@@ -45630,10 +45606,8 @@
       </c>
       <c r="E1657" t="inlineStr"/>
       <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1658">
@@ -45659,10 +45633,8 @@
       </c>
       <c r="E1658" t="inlineStr"/>
       <c r="F1658" t="inlineStr"/>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1659">
@@ -45688,10 +45660,8 @@
       </c>
       <c r="E1659" t="inlineStr"/>
       <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1660">
@@ -45717,10 +45687,8 @@
       </c>
       <c r="E1660" t="inlineStr"/>
       <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1661">
@@ -45746,10 +45714,8 @@
       </c>
       <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1662">
@@ -45775,10 +45741,8 @@
       </c>
       <c r="E1662" t="inlineStr"/>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1663">
@@ -45804,10 +45768,8 @@
       </c>
       <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1664">
@@ -45837,10 +45799,8 @@
         </is>
       </c>
       <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1664" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1665">
@@ -45866,10 +45826,8 @@
       </c>
       <c r="E1665" t="inlineStr"/>
       <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1666">
@@ -45887,10 +45845,8 @@
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr"/>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1666" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1667">
@@ -45916,10 +45872,8 @@
       </c>
       <c r="E1667" t="inlineStr"/>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1668">
@@ -45945,10 +45899,8 @@
       </c>
       <c r="E1668" t="inlineStr"/>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1669">
@@ -45974,10 +45926,8 @@
       </c>
       <c r="E1669" t="inlineStr"/>
       <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1670">
@@ -46003,48 +45953,62 @@
       </c>
       <c r="E1670" t="inlineStr"/>
       <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageAPR/19</t>
+        </is>
+      </c>
       <c r="C1671" t="inlineStr"/>
-      <c r="D1671" t="inlineStr"/>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>220.75K</t>
+        </is>
+      </c>
       <c r="E1671" t="inlineStr"/>
-      <c r="F1671" t="inlineStr"/>
-      <c r="G1671" t="inlineStr"/>
+      <c r="F1671" t="inlineStr">
+        <is>
+          <t>222.0K</t>
+        </is>
+      </c>
+      <c r="G1671" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>02:05 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>$6.73T</t>
-        </is>
-      </c>
+          <t>Non Defense Goods Orders Ex AirMAR</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>$6.73T</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1672" t="inlineStr"/>
-      <c r="F1672" t="inlineStr"/>
+      <c r="F1672" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1672" t="inlineStr">
         <is>
           <t>3</t>
@@ -46054,75 +46018,111 @@
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Existing Home SalesMAR</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr"/>
-      <c r="D1673" t="inlineStr"/>
-      <c r="E1673" t="inlineStr"/>
-      <c r="F1673" t="inlineStr"/>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>4.26M</t>
+        </is>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>4.14M</t>
+        </is>
+      </c>
+      <c r="F1673" t="inlineStr">
+        <is>
+          <t>4.18M</t>
+        </is>
+      </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>Sunday April 20 2025</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>Existing Home Sales MoMMAR</t>
+        </is>
+      </c>
       <c r="C1674" t="inlineStr"/>
-      <c r="D1674" t="inlineStr"/>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="E1674" t="inlineStr"/>
-      <c r="F1674" t="inlineStr"/>
-      <c r="G1674" t="inlineStr"/>
+      <c r="F1674" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>Monday April 21 2025</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
+        </is>
+      </c>
       <c r="C1675" t="inlineStr"/>
-      <c r="D1675" t="inlineStr"/>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>16Bcf</t>
+        </is>
+      </c>
       <c r="E1675" t="inlineStr"/>
       <c r="F1675" t="inlineStr"/>
-      <c r="G1675" t="inlineStr"/>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAR</t>
+          <t>Kansas Fed Composite IndexAPR</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr"/>
       <c r="D1676" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="E1676" t="inlineStr"/>
       <c r="F1676" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="G1676" t="inlineStr">
@@ -46134,22 +46134,26 @@
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Kansas Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr"/>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E1677" t="inlineStr"/>
-      <c r="F1677" t="inlineStr"/>
+      <c r="F1677" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="G1677" t="inlineStr">
         <is>
           <t>3</t>
@@ -46164,13 +46168,13 @@
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr"/>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>4.060%</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="E1678" t="inlineStr"/>
@@ -46184,31 +46188,43 @@
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>Tuesday April 22 2025</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1679" t="inlineStr"/>
-      <c r="D1679" t="inlineStr"/>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
       <c r="E1679" t="inlineStr"/>
       <c r="F1679" t="inlineStr"/>
-      <c r="G1679" t="inlineStr"/>
+      <c r="G1679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/19</t>
+          <t>15-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr"/>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>6.03%</t>
         </is>
       </c>
       <c r="E1680" t="inlineStr"/>
@@ -46222,47 +46238,47 @@
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>30-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr"/>
-      <c r="D1681" t="inlineStr"/>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
       <c r="E1681" t="inlineStr"/>
       <c r="F1681" t="inlineStr"/>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexAPR</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr"/>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>4.233%</t>
         </is>
       </c>
       <c r="E1682" t="inlineStr"/>
-      <c r="F1682" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="F1682" t="inlineStr"/>
       <c r="G1682" t="inlineStr">
         <is>
           <t>3</t>
@@ -46272,55 +46288,35 @@
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexAPR</t>
-        </is>
-      </c>
+          <t>Friday April 25 2025</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr"/>
       <c r="C1683" t="inlineStr"/>
-      <c r="D1683" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="D1683" t="inlineStr"/>
       <c r="E1683" t="inlineStr"/>
-      <c r="F1683" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="G1683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1683" t="inlineStr"/>
+      <c r="G1683" t="inlineStr"/>
     </row>
     <row r="1684">
       <c r="A1684" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexAPR</t>
+          <t>Fed Balance SheetAPR/23</t>
         </is>
       </c>
       <c r="C1684" t="inlineStr"/>
       <c r="D1684" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$6.73T</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr"/>
-      <c r="F1684" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
+      <c r="F1684" t="inlineStr"/>
       <c r="G1684" t="inlineStr">
         <is>
           <t>3</t>
@@ -46330,152 +46326,204 @@
     <row r="1685">
       <c r="A1685" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1685" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C1685" t="inlineStr"/>
-      <c r="D1685" t="inlineStr">
-        <is>
-          <t>3.984%</t>
-        </is>
-      </c>
+      <c r="D1685" t="inlineStr"/>
       <c r="E1685" t="inlineStr"/>
       <c r="F1685" t="inlineStr"/>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>Money SupplyMAR</t>
+          <t>Michigan Consumer Sentiment FinalAPR</t>
         </is>
       </c>
       <c r="C1686" t="inlineStr"/>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>$21.67T</t>
-        </is>
-      </c>
-      <c r="E1686" t="inlineStr"/>
-      <c r="F1686" t="inlineStr"/>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="F1686" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1687">
       <c r="A1687" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1687" t="inlineStr"/>
-      <c r="D1687" t="inlineStr"/>
-      <c r="E1687" t="inlineStr"/>
-      <c r="F1687" t="inlineStr"/>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="F1687" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1688">
       <c r="A1688" t="inlineStr">
         <is>
-          <t>Wednesday April 23 2025</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations FinalAPR</t>
+        </is>
+      </c>
       <c r="C1688" t="inlineStr"/>
-      <c r="D1688" t="inlineStr"/>
-      <c r="E1688" t="inlineStr"/>
-      <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr"/>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>52.6</t>
+        </is>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="F1688" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/18</t>
+          <t>Michigan Current Conditions FinalAPR</t>
         </is>
       </c>
       <c r="C1689" t="inlineStr"/>
       <c r="D1689" t="inlineStr">
         <is>
-          <t>2.4M</t>
-        </is>
-      </c>
-      <c r="E1689" t="inlineStr"/>
-      <c r="F1689" t="inlineStr"/>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
+      <c r="F1689" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
       <c r="G1689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1690">
       <c r="A1690" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/18</t>
+          <t>Michigan Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1690" t="inlineStr"/>
       <c r="D1690" t="inlineStr">
         <is>
-          <t>6.81%</t>
-        </is>
-      </c>
-      <c r="E1690" t="inlineStr"/>
-      <c r="F1690" t="inlineStr"/>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="F1690" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1691">
       <c r="A1691" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/18</t>
+          <t>Baker Hughes Oil Rig CountAPR/25</t>
         </is>
       </c>
       <c r="C1691" t="inlineStr"/>
       <c r="D1691" t="inlineStr">
         <is>
-          <t>-8.5%</t>
+          <t>481</t>
         </is>
       </c>
       <c r="E1691" t="inlineStr"/>
@@ -46489,18 +46537,18 @@
     <row r="1692">
       <c r="A1692" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/18</t>
+          <t>Baker Hughes Total Rigs CountAPR/25</t>
         </is>
       </c>
       <c r="C1692" t="inlineStr"/>
       <c r="D1692" t="inlineStr">
         <is>
-          <t>267.5</t>
+          <t>585</t>
         </is>
       </c>
       <c r="E1692" t="inlineStr"/>
@@ -46514,1445 +46562,28 @@
     <row r="1693">
       <c r="A1693" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/18</t>
-        </is>
-      </c>
+          <t>Sunday April 27 2025</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr"/>
       <c r="C1693" t="inlineStr"/>
-      <c r="D1693" t="inlineStr">
-        <is>
-          <t>841.9</t>
-        </is>
-      </c>
+      <c r="D1693" t="inlineStr"/>
       <c r="E1693" t="inlineStr"/>
       <c r="F1693" t="inlineStr"/>
-      <c r="G1693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1693" t="inlineStr"/>
     </row>
     <row r="1694">
       <c r="A1694" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/18</t>
-        </is>
-      </c>
+          <t>Monday April 28 2025</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr"/>
       <c r="C1694" t="inlineStr"/>
-      <c r="D1694" t="inlineStr">
-        <is>
-          <t>164.2</t>
-        </is>
-      </c>
+      <c r="D1694" t="inlineStr"/>
       <c r="E1694" t="inlineStr"/>
       <c r="F1694" t="inlineStr"/>
-      <c r="G1694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>Fed Beth Speech</t>
-        </is>
-      </c>
-      <c r="C1695" t="inlineStr"/>
-      <c r="D1695" t="inlineStr"/>
-      <c r="E1695" t="inlineStr"/>
-      <c r="F1695" t="inlineStr"/>
-      <c r="G1695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr"/>
-      <c r="D1696" t="inlineStr"/>
-      <c r="E1696" t="inlineStr"/>
-      <c r="F1696" t="inlineStr"/>
-      <c r="G1696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashAPR</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr"/>
-      <c r="D1697" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1697" t="inlineStr"/>
-      <c r="F1697" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G1697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashAPR</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr"/>
-      <c r="D1698" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="E1698" t="inlineStr"/>
-      <c r="F1698" t="inlineStr">
-        <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="G1698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashAPR</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr"/>
-      <c r="D1699" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1699" t="inlineStr"/>
-      <c r="F1699" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G1699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>New Home SalesMAR</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr"/>
-      <c r="D1700" t="inlineStr">
-        <is>
-          <t>0.676M</t>
-        </is>
-      </c>
-      <c r="E1700" t="inlineStr">
-        <is>
-          <t>0.680M</t>
-        </is>
-      </c>
-      <c r="F1700" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
-      <c r="G1700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr"/>
-      <c r="D1701" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E1701" t="inlineStr"/>
-      <c r="F1701" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr"/>
-      <c r="D1702" t="inlineStr">
-        <is>
-          <t>0.515M</t>
-        </is>
-      </c>
-      <c r="E1702" t="inlineStr"/>
-      <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr"/>
-      <c r="D1703" t="inlineStr">
-        <is>
-          <t>-1.958M</t>
-        </is>
-      </c>
-      <c r="E1703" t="inlineStr"/>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1704" t="inlineStr"/>
-      <c r="D1704" t="inlineStr">
-        <is>
-          <t>-2.044M</t>
-        </is>
-      </c>
-      <c r="E1704" t="inlineStr"/>
-      <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1705" t="inlineStr"/>
-      <c r="D1705" t="inlineStr">
-        <is>
-          <t>-0.654M</t>
-        </is>
-      </c>
-      <c r="E1705" t="inlineStr"/>
-      <c r="F1705" t="inlineStr"/>
-      <c r="G1705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1706" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1706" t="inlineStr"/>
-      <c r="D1706" t="inlineStr">
-        <is>
-          <t>0.03M</t>
-        </is>
-      </c>
-      <c r="E1706" t="inlineStr"/>
-      <c r="F1706" t="inlineStr"/>
-      <c r="G1706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1707" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1707" t="inlineStr"/>
-      <c r="D1707" t="inlineStr">
-        <is>
-          <t>-1.851M</t>
-        </is>
-      </c>
-      <c r="E1707" t="inlineStr"/>
-      <c r="F1707" t="inlineStr"/>
-      <c r="G1707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1708" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1708" t="inlineStr"/>
-      <c r="D1708" t="inlineStr">
-        <is>
-          <t>0.466M</t>
-        </is>
-      </c>
-      <c r="E1708" t="inlineStr"/>
-      <c r="F1708" t="inlineStr"/>
-      <c r="G1708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1709" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1709" t="inlineStr"/>
-      <c r="D1709" t="inlineStr">
-        <is>
-          <t>0.019M</t>
-        </is>
-      </c>
-      <c r="E1709" t="inlineStr"/>
-      <c r="F1709" t="inlineStr"/>
-      <c r="G1709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1710" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1710" t="inlineStr"/>
-      <c r="D1710" t="inlineStr">
-        <is>
-          <t>-0.063M</t>
-        </is>
-      </c>
-      <c r="E1710" t="inlineStr"/>
-      <c r="F1710" t="inlineStr"/>
-      <c r="G1710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1711" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1711" t="inlineStr"/>
-      <c r="D1711" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1711" t="inlineStr"/>
-      <c r="F1711" t="inlineStr"/>
-      <c r="G1711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1712" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1712" t="inlineStr"/>
-      <c r="D1712" t="inlineStr">
-        <is>
-          <t>0.105%</t>
-        </is>
-      </c>
-      <c r="E1712" t="inlineStr"/>
-      <c r="F1712" t="inlineStr"/>
-      <c r="G1712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1713" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1713" t="inlineStr"/>
-      <c r="D1713" t="inlineStr">
-        <is>
-          <t>4.100%</t>
-        </is>
-      </c>
-      <c r="E1713" t="inlineStr"/>
-      <c r="F1713" t="inlineStr"/>
-      <c r="G1713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1714" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C1714" t="inlineStr"/>
-      <c r="D1714" t="inlineStr"/>
-      <c r="E1714" t="inlineStr"/>
-      <c r="F1714" t="inlineStr"/>
-      <c r="G1714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" t="inlineStr"/>
-      <c r="B1715" t="inlineStr">
-        <is>
-          <t>Building Permits FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1715" t="inlineStr"/>
-      <c r="D1715" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1715" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="F1715" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="G1715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1716">
-      <c r="A1716" t="inlineStr"/>
-      <c r="B1716" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1716" t="inlineStr"/>
-      <c r="D1716" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1716" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1716" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1717">
-      <c r="A1717" t="inlineStr">
-        <is>
-          <t>Thursday April 24 2025</t>
-        </is>
-      </c>
-      <c r="B1717" t="inlineStr"/>
-      <c r="C1717" t="inlineStr"/>
-      <c r="D1717" t="inlineStr"/>
-      <c r="E1717" t="inlineStr"/>
-      <c r="F1717" t="inlineStr"/>
-      <c r="G1717" t="inlineStr"/>
-    </row>
-    <row r="1718">
-      <c r="A1718" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1718" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1718" t="inlineStr"/>
-      <c r="D1718" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1718" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1718" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G1718" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1719">
-      <c r="A1719" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1719" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1719" t="inlineStr"/>
-      <c r="D1719" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E1719" t="inlineStr"/>
-      <c r="F1719" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="G1719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1720" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1720" t="inlineStr"/>
-      <c r="D1720" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1720" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1720" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1721" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/19</t>
-        </is>
-      </c>
-      <c r="C1721" t="inlineStr"/>
-      <c r="D1721" t="inlineStr">
-        <is>
-          <t>215K</t>
-        </is>
-      </c>
-      <c r="E1721" t="inlineStr"/>
-      <c r="F1721" t="inlineStr">
-        <is>
-          <t>218.0K</t>
-        </is>
-      </c>
-      <c r="G1721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1722" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1722" t="inlineStr"/>
-      <c r="D1722" t="inlineStr">
-        <is>
-          <t>1885K</t>
-        </is>
-      </c>
-      <c r="E1722" t="inlineStr"/>
-      <c r="F1722" t="inlineStr">
-        <is>
-          <t>1888.0K</t>
-        </is>
-      </c>
-      <c r="G1722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1723">
-      <c r="A1723" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1723" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1723" t="inlineStr"/>
-      <c r="D1723" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1723" t="inlineStr"/>
-      <c r="F1723" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1724">
-      <c r="A1724" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1724" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/19</t>
-        </is>
-      </c>
-      <c r="C1724" t="inlineStr"/>
-      <c r="D1724" t="inlineStr">
-        <is>
-          <t>220.75K</t>
-        </is>
-      </c>
-      <c r="E1724" t="inlineStr"/>
-      <c r="F1724" t="inlineStr">
-        <is>
-          <t>222.0K</t>
-        </is>
-      </c>
-      <c r="G1724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1725">
-      <c r="A1725" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1725" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirMAR</t>
-        </is>
-      </c>
-      <c r="C1725" t="inlineStr"/>
-      <c r="D1725" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1725" t="inlineStr"/>
-      <c r="F1725" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1726">
-      <c r="A1726" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1726" t="inlineStr">
-        <is>
-          <t>Existing Home SalesMAR</t>
-        </is>
-      </c>
-      <c r="C1726" t="inlineStr"/>
-      <c r="D1726" t="inlineStr">
-        <is>
-          <t>4.26M</t>
-        </is>
-      </c>
-      <c r="E1726" t="inlineStr">
-        <is>
-          <t>4.14M</t>
-        </is>
-      </c>
-      <c r="F1726" t="inlineStr">
-        <is>
-          <t>4.18M</t>
-        </is>
-      </c>
-      <c r="G1726" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1727">
-      <c r="A1727" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1727" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1727" t="inlineStr"/>
-      <c r="D1727" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1727" t="inlineStr"/>
-      <c r="F1727" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="G1727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1728">
-      <c r="A1728" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1728" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1728" t="inlineStr"/>
-      <c r="D1728" t="inlineStr">
-        <is>
-          <t>16Bcf</t>
-        </is>
-      </c>
-      <c r="E1728" t="inlineStr"/>
-      <c r="F1728" t="inlineStr"/>
-      <c r="G1728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1729">
-      <c r="A1729" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1729" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1729" t="inlineStr"/>
-      <c r="D1729" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E1729" t="inlineStr"/>
-      <c r="F1729" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G1729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1730">
-      <c r="A1730" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1730" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1730" t="inlineStr"/>
-      <c r="D1730" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E1730" t="inlineStr"/>
-      <c r="F1730" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="G1730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1731">
-      <c r="A1731" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1731" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1731" t="inlineStr"/>
-      <c r="D1731" t="inlineStr">
-        <is>
-          <t>4.24%</t>
-        </is>
-      </c>
-      <c r="E1731" t="inlineStr"/>
-      <c r="F1731" t="inlineStr"/>
-      <c r="G1731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1732">
-      <c r="A1732" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1732" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1732" t="inlineStr"/>
-      <c r="D1732" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E1732" t="inlineStr"/>
-      <c r="F1732" t="inlineStr"/>
-      <c r="G1732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1733">
-      <c r="A1733" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1733" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1733" t="inlineStr"/>
-      <c r="D1733" t="inlineStr">
-        <is>
-          <t>6.03%</t>
-        </is>
-      </c>
-      <c r="E1733" t="inlineStr"/>
-      <c r="F1733" t="inlineStr"/>
-      <c r="G1733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1734">
-      <c r="A1734" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1734" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1734" t="inlineStr"/>
-      <c r="D1734" t="inlineStr">
-        <is>
-          <t>6.83%</t>
-        </is>
-      </c>
-      <c r="E1734" t="inlineStr"/>
-      <c r="F1734" t="inlineStr"/>
-      <c r="G1734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1735">
-      <c r="A1735" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1735" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1735" t="inlineStr"/>
-      <c r="D1735" t="inlineStr">
-        <is>
-          <t>4.233%</t>
-        </is>
-      </c>
-      <c r="E1735" t="inlineStr"/>
-      <c r="F1735" t="inlineStr"/>
-      <c r="G1735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1736">
-      <c r="A1736" t="inlineStr">
-        <is>
-          <t>Friday April 25 2025</t>
-        </is>
-      </c>
-      <c r="B1736" t="inlineStr"/>
-      <c r="C1736" t="inlineStr"/>
-      <c r="D1736" t="inlineStr"/>
-      <c r="E1736" t="inlineStr"/>
-      <c r="F1736" t="inlineStr"/>
-      <c r="G1736" t="inlineStr"/>
-    </row>
-    <row r="1737">
-      <c r="A1737" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1737" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/23</t>
-        </is>
-      </c>
-      <c r="C1737" t="inlineStr"/>
-      <c r="D1737" t="inlineStr">
-        <is>
-          <t>$6.73T</t>
-        </is>
-      </c>
-      <c r="E1737" t="inlineStr"/>
-      <c r="F1737" t="inlineStr"/>
-      <c r="G1737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1738">
-      <c r="A1738" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B1738" t="inlineStr">
-        <is>
-          <t>Fed Kashkari Speech</t>
-        </is>
-      </c>
-      <c r="C1738" t="inlineStr"/>
-      <c r="D1738" t="inlineStr"/>
-      <c r="E1738" t="inlineStr"/>
-      <c r="F1738" t="inlineStr"/>
-      <c r="G1738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1739">
-      <c r="A1739" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1739" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1739" t="inlineStr"/>
-      <c r="D1739" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1739" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1739" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="G1739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1740">
-      <c r="A1740" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1740" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1740" t="inlineStr"/>
-      <c r="D1740" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1740" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="F1740" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1741">
-      <c r="A1741" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1741" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1741" t="inlineStr"/>
-      <c r="D1741" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1741" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="F1741" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="G1741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1742">
-      <c r="A1742" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1742" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1742" t="inlineStr"/>
-      <c r="D1742" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1742" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F1742" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="G1742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1743">
-      <c r="A1743" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1743" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1743" t="inlineStr"/>
-      <c r="D1743" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1743" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F1743" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="G1743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1744">
-      <c r="A1744" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1744" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1744" t="inlineStr"/>
-      <c r="D1744" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
-      <c r="E1744" t="inlineStr"/>
-      <c r="F1744" t="inlineStr"/>
-      <c r="G1744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1745">
-      <c r="A1745" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1745" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1745" t="inlineStr"/>
-      <c r="D1745" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="E1745" t="inlineStr"/>
-      <c r="F1745" t="inlineStr"/>
-      <c r="G1745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1746">
-      <c r="A1746" t="inlineStr">
-        <is>
-          <t>Sunday April 27 2025</t>
-        </is>
-      </c>
-      <c r="B1746" t="inlineStr"/>
-      <c r="C1746" t="inlineStr"/>
-      <c r="D1746" t="inlineStr"/>
-      <c r="E1746" t="inlineStr"/>
-      <c r="F1746" t="inlineStr"/>
-      <c r="G1746" t="inlineStr"/>
-    </row>
-    <row r="1747">
-      <c r="A1747" t="inlineStr">
-        <is>
-          <t>Monday April 28 2025</t>
-        </is>
-      </c>
-      <c r="B1747" t="inlineStr"/>
-      <c r="C1747" t="inlineStr"/>
-      <c r="D1747" t="inlineStr"/>
-      <c r="E1747" t="inlineStr"/>
-      <c r="F1747" t="inlineStr"/>
-      <c r="G1747" t="inlineStr"/>
+      <c r="G1694" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
@@ -45238,10 +45238,8 @@
         </is>
       </c>
       <c r="F1645" t="inlineStr"/>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1646">
@@ -45267,10 +45265,8 @@
       </c>
       <c r="E1646" t="inlineStr"/>
       <c r="F1646" t="inlineStr"/>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1647">
@@ -45296,10 +45292,8 @@
       </c>
       <c r="E1647" t="inlineStr"/>
       <c r="F1647" t="inlineStr"/>
-      <c r="G1647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1648">
@@ -45317,10 +45311,8 @@
       <c r="D1648" t="inlineStr"/>
       <c r="E1648" t="inlineStr"/>
       <c r="F1648" t="inlineStr"/>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1648" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1649">
@@ -45354,10 +45346,8 @@
           <t>1.4M</t>
         </is>
       </c>
-      <c r="G1649" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1649" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1650">
@@ -45391,10 +45381,8 @@
           <t>1.42M</t>
         </is>
       </c>
-      <c r="G1650" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1650" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1651">
@@ -45424,10 +45412,8 @@
           <t>-4%</t>
         </is>
       </c>
-      <c r="G1651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1652">
@@ -45457,10 +45443,8 @@
           <t>-5.3%</t>
         </is>
       </c>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1652" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1653">
@@ -45494,10 +45478,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1654">
@@ -45531,10 +45513,8 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G1654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1655">
@@ -45568,10 +45548,8 @@
           <t>1890.0K</t>
         </is>
       </c>
-      <c r="G1655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1656">
@@ -45601,10 +45579,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1657">
@@ -45630,10 +45606,8 @@
       </c>
       <c r="E1657" t="inlineStr"/>
       <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1658">
@@ -45659,10 +45633,8 @@
       </c>
       <c r="E1658" t="inlineStr"/>
       <c r="F1658" t="inlineStr"/>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1659">
@@ -45688,10 +45660,8 @@
       </c>
       <c r="E1659" t="inlineStr"/>
       <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1660">
@@ -45717,10 +45687,8 @@
       </c>
       <c r="E1660" t="inlineStr"/>
       <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1661">
@@ -45746,10 +45714,8 @@
       </c>
       <c r="E1661" t="inlineStr"/>
       <c r="F1661" t="inlineStr"/>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1662">
@@ -45775,10 +45741,8 @@
       </c>
       <c r="E1662" t="inlineStr"/>
       <c r="F1662" t="inlineStr"/>
-      <c r="G1662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1663">
@@ -45804,10 +45768,8 @@
       </c>
       <c r="E1663" t="inlineStr"/>
       <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1664">
@@ -45837,10 +45799,8 @@
         </is>
       </c>
       <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1664" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1665">
@@ -45866,10 +45826,8 @@
       </c>
       <c r="E1665" t="inlineStr"/>
       <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1666">
@@ -45887,10 +45845,8 @@
       <c r="D1666" t="inlineStr"/>
       <c r="E1666" t="inlineStr"/>
       <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1666" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1667">
@@ -45916,10 +45872,8 @@
       </c>
       <c r="E1667" t="inlineStr"/>
       <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1668">
@@ -45945,10 +45899,8 @@
       </c>
       <c r="E1668" t="inlineStr"/>
       <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1669">
@@ -45974,10 +45926,8 @@
       </c>
       <c r="E1669" t="inlineStr"/>
       <c r="F1669" t="inlineStr"/>
-      <c r="G1669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1670">
@@ -46003,10 +45953,8 @@
       </c>
       <c r="E1670" t="inlineStr"/>
       <c r="F1670" t="inlineStr"/>
-      <c r="G1670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1671">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1747"/>
+  <dimension ref="A1:G1750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46170,12 +46170,12 @@
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr"/>
@@ -46191,29 +46191,21 @@
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexAPR</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr"/>
-      <c r="D1682" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D1682" t="inlineStr"/>
       <c r="E1682" t="inlineStr"/>
-      <c r="F1682" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="F1682" t="inlineStr"/>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46225,19 +46217,19 @@
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexAPR</t>
+          <t>Richmond Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr"/>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E1683" t="inlineStr"/>
       <c r="F1683" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="G1683" t="inlineStr">
@@ -46254,19 +46246,19 @@
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexAPR</t>
+          <t>Richmond Fed Manufacturing Shipments IndexAPR</t>
         </is>
       </c>
       <c r="C1684" t="inlineStr"/>
       <c r="D1684" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr"/>
       <c r="F1684" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="G1684" t="inlineStr">
@@ -46278,22 +46270,26 @@
     <row r="1685">
       <c r="A1685" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1685" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Richmond Fed Services Revenues IndexAPR</t>
         </is>
       </c>
       <c r="C1685" t="inlineStr"/>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>3.984%</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E1685" t="inlineStr"/>
-      <c r="F1685" t="inlineStr"/>
+      <c r="F1685" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
       <c r="G1685" t="inlineStr">
         <is>
           <t>3</t>
@@ -46308,13 +46304,13 @@
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>Money SupplyMAR</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="C1686" t="inlineStr"/>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>$21.67T</t>
+          <t>3.984%</t>
         </is>
       </c>
       <c r="E1686" t="inlineStr"/>
@@ -46328,77 +46324,77 @@
     <row r="1687">
       <c r="A1687" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>Money SupplyMAR</t>
         </is>
       </c>
       <c r="C1687" t="inlineStr"/>
-      <c r="D1687" t="inlineStr"/>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>$21.67T</t>
+        </is>
+      </c>
       <c r="E1687" t="inlineStr"/>
       <c r="F1687" t="inlineStr"/>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1688">
       <c r="A1688" t="inlineStr">
         <is>
-          <t>Wednesday April 23 2025</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>Fed Kashkari Speech</t>
+        </is>
+      </c>
       <c r="C1688" t="inlineStr"/>
       <c r="D1688" t="inlineStr"/>
       <c r="E1688" t="inlineStr"/>
       <c r="F1688" t="inlineStr"/>
-      <c r="G1688" t="inlineStr"/>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/18</t>
-        </is>
-      </c>
+          <t>Wednesday April 23 2025</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr"/>
       <c r="C1689" t="inlineStr"/>
-      <c r="D1689" t="inlineStr">
-        <is>
-          <t>2.4M</t>
-        </is>
-      </c>
+      <c r="D1689" t="inlineStr"/>
       <c r="E1689" t="inlineStr"/>
       <c r="F1689" t="inlineStr"/>
-      <c r="G1689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1689" t="inlineStr"/>
     </row>
     <row r="1690">
       <c r="A1690" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/18</t>
+          <t>API Crude Oil Stock ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1690" t="inlineStr"/>
       <c r="D1690" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>2.4M</t>
         </is>
       </c>
       <c r="E1690" t="inlineStr"/>
@@ -46412,25 +46408,21 @@
     <row r="1691">
       <c r="A1691" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/18</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1691" t="inlineStr"/>
-      <c r="D1691" t="inlineStr">
-        <is>
-          <t>-8.5%</t>
-        </is>
-      </c>
+      <c r="D1691" t="inlineStr"/>
       <c r="E1691" t="inlineStr"/>
       <c r="F1691" t="inlineStr"/>
       <c r="G1691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46442,20 +46434,20 @@
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/18</t>
+          <t>MBA 30-Year Mortgage RateAPR/18</t>
         </is>
       </c>
       <c r="C1692" t="inlineStr"/>
       <c r="D1692" t="inlineStr">
         <is>
-          <t>267.5</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E1692" t="inlineStr"/>
       <c r="F1692" t="inlineStr"/>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46467,13 +46459,13 @@
       </c>
       <c r="B1693" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/18</t>
+          <t>MBA Mortgage ApplicationsAPR/18</t>
         </is>
       </c>
       <c r="C1693" t="inlineStr"/>
       <c r="D1693" t="inlineStr">
         <is>
-          <t>841.9</t>
+          <t>-8.5%</t>
         </is>
       </c>
       <c r="E1693" t="inlineStr"/>
@@ -46492,13 +46484,13 @@
       </c>
       <c r="B1694" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/18</t>
+          <t>MBA Mortgage Market IndexAPR/18</t>
         </is>
       </c>
       <c r="C1694" t="inlineStr"/>
       <c r="D1694" t="inlineStr">
         <is>
-          <t>164.2</t>
+          <t>267.5</t>
         </is>
       </c>
       <c r="E1694" t="inlineStr"/>
@@ -46512,68 +46504,68 @@
     <row r="1695">
       <c r="A1695" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Fed Beth Speech</t>
+          <t>MBA Mortgage Refinance IndexAPR/18</t>
         </is>
       </c>
       <c r="C1695" t="inlineStr"/>
-      <c r="D1695" t="inlineStr"/>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>841.9</t>
+        </is>
+      </c>
       <c r="E1695" t="inlineStr"/>
       <c r="F1695" t="inlineStr"/>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1696">
       <c r="A1696" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>MBA Purchase IndexAPR/18</t>
         </is>
       </c>
       <c r="C1696" t="inlineStr"/>
-      <c r="D1696" t="inlineStr"/>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>164.2</t>
+        </is>
+      </c>
       <c r="E1696" t="inlineStr"/>
       <c r="F1696" t="inlineStr"/>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1697">
       <c r="A1697" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashAPR</t>
+          <t>Fed Beth Speech</t>
         </is>
       </c>
       <c r="C1697" t="inlineStr"/>
-      <c r="D1697" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
+      <c r="D1697" t="inlineStr"/>
       <c r="E1697" t="inlineStr"/>
-      <c r="F1697" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="F1697" t="inlineStr"/>
       <c r="G1697" t="inlineStr">
         <is>
           <t>2</t>
@@ -46583,26 +46575,18 @@
     <row r="1698">
       <c r="A1698" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1698" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashAPR</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C1698" t="inlineStr"/>
-      <c r="D1698" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="D1698" t="inlineStr"/>
       <c r="E1698" t="inlineStr"/>
-      <c r="F1698" t="inlineStr">
-        <is>
-          <t>49.5</t>
-        </is>
-      </c>
+      <c r="F1698" t="inlineStr"/>
       <c r="G1698" t="inlineStr">
         <is>
           <t>2</t>
@@ -46612,26 +46596,18 @@
     <row r="1699">
       <c r="A1699" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>07:05 PM</t>
         </is>
       </c>
       <c r="B1699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashAPR</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C1699" t="inlineStr"/>
-      <c r="D1699" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+      <c r="D1699" t="inlineStr"/>
       <c r="E1699" t="inlineStr"/>
-      <c r="F1699" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
+      <c r="F1699" t="inlineStr"/>
       <c r="G1699" t="inlineStr">
         <is>
           <t>2</t>
@@ -46641,28 +46617,24 @@
     <row r="1700">
       <c r="A1700" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1700" t="inlineStr">
         <is>
-          <t>New Home SalesMAR</t>
+          <t>S&amp;P Global Composite PMI FlashAPR</t>
         </is>
       </c>
       <c r="C1700" t="inlineStr"/>
       <c r="D1700" t="inlineStr">
         <is>
-          <t>0.676M</t>
-        </is>
-      </c>
-      <c r="E1700" t="inlineStr">
-        <is>
-          <t>0.680M</t>
-        </is>
-      </c>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="E1700" t="inlineStr"/>
       <c r="F1700" t="inlineStr">
         <is>
-          <t>0.68M</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G1700" t="inlineStr">
@@ -46674,24 +46646,24 @@
     <row r="1701">
       <c r="A1701" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1701" t="inlineStr">
         <is>
-          <t>New Home Sales MoMMAR</t>
+          <t>S&amp;P Global Manufacturing PMI FlashAPR</t>
         </is>
       </c>
       <c r="C1701" t="inlineStr"/>
       <c r="D1701" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="E1701" t="inlineStr"/>
       <c r="F1701" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="G1701" t="inlineStr">
@@ -46703,22 +46675,26 @@
     <row r="1702">
       <c r="A1702" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1702" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/18</t>
+          <t>S&amp;P Global Services PMI FlashAPR</t>
         </is>
       </c>
       <c r="C1702" t="inlineStr"/>
       <c r="D1702" t="inlineStr">
         <is>
-          <t>0.515M</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="E1702" t="inlineStr"/>
-      <c r="F1702" t="inlineStr"/>
+      <c r="F1702" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1702" t="inlineStr">
         <is>
           <t>2</t>
@@ -46728,22 +46704,30 @@
     <row r="1703">
       <c r="A1703" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1703" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeAPR/18</t>
+          <t>New Home SalesMAR</t>
         </is>
       </c>
       <c r="C1703" t="inlineStr"/>
       <c r="D1703" t="inlineStr">
         <is>
-          <t>-1.958M</t>
-        </is>
-      </c>
-      <c r="E1703" t="inlineStr"/>
-      <c r="F1703" t="inlineStr"/>
+          <t>0.676M</t>
+        </is>
+      </c>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>0.680M</t>
+        </is>
+      </c>
+      <c r="F1703" t="inlineStr">
+        <is>
+          <t>0.68M</t>
+        </is>
+      </c>
       <c r="G1703" t="inlineStr">
         <is>
           <t>2</t>
@@ -46753,25 +46737,29 @@
     <row r="1704">
       <c r="A1704" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1704" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeAPR/18</t>
+          <t>New Home Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1704" t="inlineStr"/>
       <c r="D1704" t="inlineStr">
         <is>
-          <t>-2.044M</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E1704" t="inlineStr"/>
-      <c r="F1704" t="inlineStr"/>
+      <c r="F1704" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46783,20 +46771,20 @@
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/18</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1705" t="inlineStr"/>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>-0.654M</t>
+          <t>0.515M</t>
         </is>
       </c>
       <c r="E1705" t="inlineStr"/>
       <c r="F1705" t="inlineStr"/>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46808,20 +46796,20 @@
       </c>
       <c r="B1706" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/18</t>
+          <t>EIA Gasoline Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1706" t="inlineStr"/>
       <c r="D1706" t="inlineStr">
         <is>
-          <t>0.03M</t>
+          <t>-1.958M</t>
         </is>
       </c>
       <c r="E1706" t="inlineStr"/>
       <c r="F1706" t="inlineStr"/>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46833,13 +46821,13 @@
       </c>
       <c r="B1707" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeAPR/18</t>
+          <t>EIA Crude Oil Imports ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1707" t="inlineStr"/>
       <c r="D1707" t="inlineStr">
         <is>
-          <t>-1.851M</t>
+          <t>-2.044M</t>
         </is>
       </c>
       <c r="E1707" t="inlineStr"/>
@@ -46858,13 +46846,13 @@
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeAPR/18</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1708" t="inlineStr"/>
       <c r="D1708" t="inlineStr">
         <is>
-          <t>0.466M</t>
+          <t>-0.654M</t>
         </is>
       </c>
       <c r="E1708" t="inlineStr"/>
@@ -46883,13 +46871,13 @@
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1709" t="inlineStr"/>
       <c r="D1709" t="inlineStr">
         <is>
-          <t>0.019M</t>
+          <t>0.03M</t>
         </is>
       </c>
       <c r="E1709" t="inlineStr"/>
@@ -46908,13 +46896,13 @@
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
+          <t>EIA Distillate Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1710" t="inlineStr"/>
       <c r="D1710" t="inlineStr">
         <is>
-          <t>-0.063M</t>
+          <t>-1.851M</t>
         </is>
       </c>
       <c r="E1710" t="inlineStr"/>
@@ -46928,18 +46916,18 @@
     <row r="1711">
       <c r="A1711" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Gasoline Production ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1711" t="inlineStr"/>
       <c r="D1711" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>0.466M</t>
         </is>
       </c>
       <c r="E1711" t="inlineStr"/>
@@ -46953,18 +46941,18 @@
     <row r="1712">
       <c r="A1712" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1712" t="inlineStr"/>
       <c r="D1712" t="inlineStr">
         <is>
-          <t>0.105%</t>
+          <t>0.019M</t>
         </is>
       </c>
       <c r="E1712" t="inlineStr"/>
@@ -46978,18 +46966,18 @@
     <row r="1713">
       <c r="A1713" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1713" t="inlineStr"/>
       <c r="D1713" t="inlineStr">
         <is>
-          <t>4.100%</t>
+          <t>-0.063M</t>
         </is>
       </c>
       <c r="E1713" t="inlineStr"/>
@@ -47003,16 +46991,20 @@
     <row r="1714">
       <c r="A1714" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1714" t="inlineStr"/>
-      <c r="D1714" t="inlineStr"/>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E1714" t="inlineStr"/>
       <c r="F1714" t="inlineStr"/>
       <c r="G1714" t="inlineStr">
@@ -47022,28 +47014,24 @@
       </c>
     </row>
     <row r="1715">
-      <c r="A1715" t="inlineStr"/>
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>Building Permits FinalMAR</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C1715" t="inlineStr"/>
       <c r="D1715" t="inlineStr">
         <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1715" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="F1715" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
+          <t>0.105%</t>
+        </is>
+      </c>
+      <c r="E1715" t="inlineStr"/>
+      <c r="F1715" t="inlineStr"/>
       <c r="G1715" t="inlineStr">
         <is>
           <t>3</t>
@@ -47051,28 +47039,24 @@
       </c>
     </row>
     <row r="1716">
-      <c r="A1716" t="inlineStr"/>
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalMAR</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="C1716" t="inlineStr"/>
       <c r="D1716" t="inlineStr">
         <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1716" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1716" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>4.100%</t>
+        </is>
+      </c>
+      <c r="E1716" t="inlineStr"/>
+      <c r="F1716" t="inlineStr"/>
       <c r="G1716" t="inlineStr">
         <is>
           <t>3</t>
@@ -47082,110 +47066,94 @@
     <row r="1717">
       <c r="A1717" t="inlineStr">
         <is>
-          <t>Thursday April 24 2025</t>
-        </is>
-      </c>
-      <c r="B1717" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>Fed Beige Book</t>
+        </is>
+      </c>
       <c r="C1717" t="inlineStr"/>
       <c r="D1717" t="inlineStr"/>
       <c r="E1717" t="inlineStr"/>
       <c r="F1717" t="inlineStr"/>
-      <c r="G1717" t="inlineStr"/>
+      <c r="G1717" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1718">
-      <c r="A1718" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1718" t="inlineStr"/>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMMAR</t>
+          <t>Building Permits FinalMAR</t>
         </is>
       </c>
       <c r="C1718" t="inlineStr"/>
       <c r="D1718" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.459M</t>
         </is>
       </c>
       <c r="E1718" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.482M</t>
         </is>
       </c>
       <c r="F1718" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.482M</t>
         </is>
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1719">
-      <c r="A1719" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1719" t="inlineStr"/>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexMAR</t>
+          <t>Building Permits MoM FinalMAR</t>
         </is>
       </c>
       <c r="C1719" t="inlineStr"/>
       <c r="D1719" t="inlineStr">
         <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E1719" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="E1719" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1719" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G1719" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1720">
       <c r="A1720" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1720" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAR</t>
-        </is>
-      </c>
+          <t>Thursday April 24 2025</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr"/>
       <c r="C1720" t="inlineStr"/>
-      <c r="D1720" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1720" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1720" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1720" t="inlineStr"/>
+      <c r="E1720" t="inlineStr"/>
+      <c r="F1720" t="inlineStr"/>
+      <c r="G1720" t="inlineStr"/>
     </row>
     <row r="1721">
       <c r="A1721" t="inlineStr">
@@ -47195,24 +47163,28 @@
       </c>
       <c r="B1721" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsAPR/19</t>
+          <t>Durable Goods Orders MoMMAR</t>
         </is>
       </c>
       <c r="C1721" t="inlineStr"/>
       <c r="D1721" t="inlineStr">
         <is>
-          <t>215K</t>
-        </is>
-      </c>
-      <c r="E1721" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1721" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F1721" t="inlineStr">
         <is>
-          <t>218.0K</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -47224,24 +47196,24 @@
       </c>
       <c r="B1722" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsAPR/12</t>
+          <t>Chicago Fed National Activity IndexMAR</t>
         </is>
       </c>
       <c r="C1722" t="inlineStr"/>
       <c r="D1722" t="inlineStr">
         <is>
-          <t>1885K</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E1722" t="inlineStr"/>
       <c r="F1722" t="inlineStr">
         <is>
-          <t>1888.0K</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47253,24 +47225,28 @@
       </c>
       <c r="B1723" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMMAR</t>
+          <t>Durable Goods Orders Ex Transp MoMMAR</t>
         </is>
       </c>
       <c r="C1723" t="inlineStr"/>
       <c r="D1723" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1723" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1723" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1723" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47282,24 +47258,24 @@
       </c>
       <c r="B1724" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageAPR/19</t>
+          <t>Initial Jobless ClaimsAPR/19</t>
         </is>
       </c>
       <c r="C1724" t="inlineStr"/>
       <c r="D1724" t="inlineStr">
         <is>
-          <t>220.75K</t>
+          <t>215K</t>
         </is>
       </c>
       <c r="E1724" t="inlineStr"/>
       <c r="F1724" t="inlineStr">
         <is>
-          <t>222.0K</t>
+          <t>218.0K</t>
         </is>
       </c>
       <c r="G1724" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47311,19 +47287,19 @@
       </c>
       <c r="B1725" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirMAR</t>
+          <t>Continuing Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1725" t="inlineStr"/>
       <c r="D1725" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>1885K</t>
         </is>
       </c>
       <c r="E1725" t="inlineStr"/>
       <c r="F1725" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1888.0K</t>
         </is>
       </c>
       <c r="G1725" t="inlineStr">
@@ -47335,84 +47311,84 @@
     <row r="1726">
       <c r="A1726" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>Existing Home SalesMAR</t>
+          <t>Durable Goods Orders ex Defense MoMMAR</t>
         </is>
       </c>
       <c r="C1726" t="inlineStr"/>
       <c r="D1726" t="inlineStr">
         <is>
-          <t>4.26M</t>
-        </is>
-      </c>
-      <c r="E1726" t="inlineStr">
-        <is>
-          <t>4.14M</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E1726" t="inlineStr"/>
       <c r="F1726" t="inlineStr">
         <is>
-          <t>4.18M</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1727">
       <c r="A1727" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1727" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/19</t>
         </is>
       </c>
       <c r="C1727" t="inlineStr"/>
       <c r="D1727" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>220.75K</t>
         </is>
       </c>
       <c r="E1727" t="inlineStr"/>
       <c r="F1727" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>222.0K</t>
         </is>
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1728">
       <c r="A1728" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1728" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
+          <t>Non Defense Goods Orders Ex AirMAR</t>
         </is>
       </c>
       <c r="C1728" t="inlineStr"/>
       <c r="D1728" t="inlineStr">
         <is>
-          <t>16Bcf</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1728" t="inlineStr"/>
-      <c r="F1728" t="inlineStr"/>
+      <c r="F1728" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1728" t="inlineStr">
         <is>
           <t>3</t>
@@ -47422,76 +47398,80 @@
     <row r="1729">
       <c r="A1729" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexAPR</t>
+          <t>Existing Home SalesMAR</t>
         </is>
       </c>
       <c r="C1729" t="inlineStr"/>
       <c r="D1729" t="inlineStr">
         <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E1729" t="inlineStr"/>
+          <t>4.26M</t>
+        </is>
+      </c>
+      <c r="E1729" t="inlineStr">
+        <is>
+          <t>4.14M</t>
+        </is>
+      </c>
       <c r="F1729" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>4.18M</t>
         </is>
       </c>
       <c r="G1729" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1730">
       <c r="A1730" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexAPR</t>
+          <t>Existing Home Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1730" t="inlineStr"/>
       <c r="D1730" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="E1730" t="inlineStr"/>
       <c r="F1730" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1731">
       <c r="A1731" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1731" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1731" t="inlineStr"/>
       <c r="D1731" t="inlineStr">
         <is>
-          <t>4.24%</t>
+          <t>16Bcf</t>
         </is>
       </c>
       <c r="E1731" t="inlineStr"/>
@@ -47505,22 +47485,26 @@
     <row r="1732">
       <c r="A1732" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Kansas Fed Composite IndexAPR</t>
         </is>
       </c>
       <c r="C1732" t="inlineStr"/>
       <c r="D1732" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E1732" t="inlineStr"/>
-      <c r="F1732" t="inlineStr"/>
+      <c r="F1732" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
       <c r="G1732" t="inlineStr">
         <is>
           <t>3</t>
@@ -47530,22 +47514,26 @@
     <row r="1733">
       <c r="A1733" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateAPR/24</t>
+          <t>Kansas Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1733" t="inlineStr"/>
       <c r="D1733" t="inlineStr">
         <is>
-          <t>6.03%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E1733" t="inlineStr"/>
-      <c r="F1733" t="inlineStr"/>
+      <c r="F1733" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="G1733" t="inlineStr">
         <is>
           <t>3</t>
@@ -47555,18 +47543,18 @@
     <row r="1734">
       <c r="A1734" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateAPR/24</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1734" t="inlineStr"/>
       <c r="D1734" t="inlineStr">
         <is>
-          <t>6.83%</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="E1734" t="inlineStr"/>
@@ -47580,18 +47568,18 @@
     <row r="1735">
       <c r="A1735" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1735" t="inlineStr"/>
       <c r="D1735" t="inlineStr">
         <is>
-          <t>4.233%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E1735" t="inlineStr"/>
@@ -47605,31 +47593,43 @@
     <row r="1736">
       <c r="A1736" t="inlineStr">
         <is>
-          <t>Friday April 25 2025</t>
-        </is>
-      </c>
-      <c r="B1736" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateAPR/24</t>
+        </is>
+      </c>
       <c r="C1736" t="inlineStr"/>
-      <c r="D1736" t="inlineStr"/>
+      <c r="D1736" t="inlineStr">
+        <is>
+          <t>6.03%</t>
+        </is>
+      </c>
       <c r="E1736" t="inlineStr"/>
       <c r="F1736" t="inlineStr"/>
-      <c r="G1736" t="inlineStr"/>
+      <c r="G1736" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/23</t>
+          <t>30-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr"/>
       <c r="D1737" t="inlineStr">
         <is>
-          <t>$6.73T</t>
+          <t>6.83%</t>
         </is>
       </c>
       <c r="E1737" t="inlineStr"/>
@@ -47643,84 +47643,60 @@
     <row r="1738">
       <c r="A1738" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1738" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1738" t="inlineStr"/>
-      <c r="D1738" t="inlineStr"/>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>4.233%</t>
+        </is>
+      </c>
       <c r="E1738" t="inlineStr"/>
       <c r="F1738" t="inlineStr"/>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1739">
       <c r="A1739" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1739" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalAPR</t>
-        </is>
-      </c>
+          <t>Friday April 25 2025</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr"/>
       <c r="C1739" t="inlineStr"/>
-      <c r="D1739" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1739" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1739" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="G1739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1739" t="inlineStr"/>
+      <c r="E1739" t="inlineStr"/>
+      <c r="F1739" t="inlineStr"/>
+      <c r="G1739" t="inlineStr"/>
     </row>
     <row r="1740">
       <c r="A1740" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
+          <t>Fed Balance SheetAPR/23</t>
         </is>
       </c>
       <c r="C1740" t="inlineStr"/>
       <c r="D1740" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1740" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="F1740" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+          <t>$6.73T</t>
+        </is>
+      </c>
+      <c r="E1740" t="inlineStr"/>
+      <c r="F1740" t="inlineStr"/>
       <c r="G1740" t="inlineStr">
         <is>
           <t>3</t>
@@ -47730,33 +47706,21 @@
     <row r="1741">
       <c r="A1741" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B1741" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalAPR</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C1741" t="inlineStr"/>
-      <c r="D1741" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1741" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="F1741" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
+      <c r="D1741" t="inlineStr"/>
+      <c r="E1741" t="inlineStr"/>
+      <c r="F1741" t="inlineStr"/>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47768,28 +47732,28 @@
       </c>
       <c r="B1742" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalAPR</t>
+          <t>Michigan Consumer Sentiment FinalAPR</t>
         </is>
       </c>
       <c r="C1742" t="inlineStr"/>
       <c r="D1742" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E1742" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -47801,23 +47765,23 @@
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalAPR</t>
+          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1743" t="inlineStr"/>
       <c r="D1743" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="E1743" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="G1743" t="inlineStr">
@@ -47829,22 +47793,30 @@
     <row r="1744">
       <c r="A1744" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/25</t>
+          <t>Michigan Consumer Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1744" t="inlineStr"/>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>481</t>
-        </is>
-      </c>
-      <c r="E1744" t="inlineStr"/>
-      <c r="F1744" t="inlineStr"/>
+          <t>52.6</t>
+        </is>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="F1744" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
       <c r="G1744" t="inlineStr">
         <is>
           <t>3</t>
@@ -47854,22 +47826,30 @@
     <row r="1745">
       <c r="A1745" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1745" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/25</t>
+          <t>Michigan Current Conditions FinalAPR</t>
         </is>
       </c>
       <c r="C1745" t="inlineStr"/>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="E1745" t="inlineStr"/>
-      <c r="F1745" t="inlineStr"/>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="E1745" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
+      <c r="F1745" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
       <c r="G1745" t="inlineStr">
         <is>
           <t>3</t>
@@ -47879,28 +47859,111 @@
     <row r="1746">
       <c r="A1746" t="inlineStr">
         <is>
-          <t>Sunday April 27 2025</t>
-        </is>
-      </c>
-      <c r="B1746" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations FinalAPR</t>
+        </is>
+      </c>
       <c r="C1746" t="inlineStr"/>
-      <c r="D1746" t="inlineStr"/>
-      <c r="E1746" t="inlineStr"/>
-      <c r="F1746" t="inlineStr"/>
-      <c r="G1746" t="inlineStr"/>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E1746" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="F1746" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="G1746" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" t="inlineStr">
         <is>
-          <t>Monday April 28 2025</t>
-        </is>
-      </c>
-      <c r="B1747" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountAPR/25</t>
+        </is>
+      </c>
       <c r="C1747" t="inlineStr"/>
-      <c r="D1747" t="inlineStr"/>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
       <c r="E1747" t="inlineStr"/>
       <c r="F1747" t="inlineStr"/>
-      <c r="G1747" t="inlineStr"/>
+      <c r="G1747" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountAPR/25</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr"/>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E1748" t="inlineStr"/>
+      <c r="F1748" t="inlineStr"/>
+      <c r="G1748" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>Sunday April 27 2025</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr"/>
+      <c r="C1749" t="inlineStr"/>
+      <c r="D1749" t="inlineStr"/>
+      <c r="E1749" t="inlineStr"/>
+      <c r="F1749" t="inlineStr"/>
+      <c r="G1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>Monday April 28 2025</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr"/>
+      <c r="C1750" t="inlineStr"/>
+      <c r="D1750" t="inlineStr"/>
+      <c r="E1750" t="inlineStr"/>
+      <c r="F1750" t="inlineStr"/>
+      <c r="G1750" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1750"/>
+  <dimension ref="A1:G1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46065,7 +46065,7 @@
       </c>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F1676" t="inlineStr">
@@ -46991,18 +46991,18 @@
     <row r="1714">
       <c r="A1714" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="C1714" t="inlineStr"/>
       <c r="D1714" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4.100%</t>
         </is>
       </c>
       <c r="E1714" t="inlineStr"/>
@@ -47016,20 +47016,16 @@
     <row r="1715">
       <c r="A1715" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C1715" t="inlineStr"/>
-      <c r="D1715" t="inlineStr">
-        <is>
-          <t>0.105%</t>
-        </is>
-      </c>
+      <c r="D1715" t="inlineStr"/>
       <c r="E1715" t="inlineStr"/>
       <c r="F1715" t="inlineStr"/>
       <c r="G1715" t="inlineStr">
@@ -47039,24 +47035,28 @@
       </c>
     </row>
     <row r="1716">
-      <c r="A1716" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
+      <c r="A1716" t="inlineStr"/>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>Building Permits FinalMAR</t>
         </is>
       </c>
       <c r="C1716" t="inlineStr"/>
       <c r="D1716" t="inlineStr">
         <is>
-          <t>4.100%</t>
-        </is>
-      </c>
-      <c r="E1716" t="inlineStr"/>
-      <c r="F1716" t="inlineStr"/>
+          <t>1.459M</t>
+        </is>
+      </c>
+      <c r="E1716" t="inlineStr">
+        <is>
+          <t>1.482M</t>
+        </is>
+      </c>
+      <c r="F1716" t="inlineStr">
+        <is>
+          <t>1.482M</t>
+        </is>
+      </c>
       <c r="G1716" t="inlineStr">
         <is>
           <t>3</t>
@@ -47064,20 +47064,28 @@
       </c>
     </row>
     <row r="1717">
-      <c r="A1717" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1717" t="inlineStr"/>
       <c r="B1717" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Building Permits MoM FinalMAR</t>
         </is>
       </c>
       <c r="C1717" t="inlineStr"/>
-      <c r="D1717" t="inlineStr"/>
-      <c r="E1717" t="inlineStr"/>
-      <c r="F1717" t="inlineStr"/>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="E1717" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F1717" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1717" t="inlineStr">
         <is>
           <t>3</t>
@@ -47088,25 +47096,17 @@
       <c r="A1718" t="inlineStr"/>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>Building Permits FinalMAR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1718" t="inlineStr"/>
       <c r="D1718" t="inlineStr">
         <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1718" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="F1718" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
+          <t>4.225%</t>
+        </is>
+      </c>
+      <c r="E1718" t="inlineStr"/>
+      <c r="F1718" t="inlineStr"/>
       <c r="G1718" t="inlineStr">
         <is>
           <t>3</t>
@@ -47117,25 +47117,17 @@
       <c r="A1719" t="inlineStr"/>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalMAR</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C1719" t="inlineStr"/>
       <c r="D1719" t="inlineStr">
         <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1719" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1719" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+          <t>0.105%</t>
+        </is>
+      </c>
+      <c r="E1719" t="inlineStr"/>
+      <c r="F1719" t="inlineStr"/>
       <c r="G1719" t="inlineStr">
         <is>
           <t>3</t>
@@ -47174,12 +47166,12 @@
       </c>
       <c r="E1721" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F1721" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G1721" t="inlineStr">
@@ -47383,7 +47375,11 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="E1728" t="inlineStr"/>
+      <c r="E1728" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1728" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -47414,7 +47410,7 @@
       </c>
       <c r="E1729" t="inlineStr">
         <is>
-          <t>4.14M</t>
+          <t>4.12M</t>
         </is>
       </c>
       <c r="F1729" t="inlineStr">
@@ -47445,7 +47441,11 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="E1730" t="inlineStr"/>
+      <c r="E1730" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="F1730" t="inlineStr">
         <is>
           <t>-1.9%</t>
@@ -47543,18 +47543,18 @@
     <row r="1734">
       <c r="A1734" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>15-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1734" t="inlineStr"/>
       <c r="D1734" t="inlineStr">
         <is>
-          <t>4.24%</t>
+          <t>6.03%</t>
         </is>
       </c>
       <c r="E1734" t="inlineStr"/>
@@ -47568,18 +47568,18 @@
     <row r="1735">
       <c r="A1735" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>30-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1735" t="inlineStr"/>
       <c r="D1735" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>6.83%</t>
         </is>
       </c>
       <c r="E1735" t="inlineStr"/>
@@ -47593,18 +47593,18 @@
     <row r="1736">
       <c r="A1736" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateAPR/24</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1736" t="inlineStr"/>
       <c r="D1736" t="inlineStr">
         <is>
-          <t>6.03%</t>
+          <t>4.233%</t>
         </is>
       </c>
       <c r="E1736" t="inlineStr"/>
@@ -47616,20 +47616,16 @@
       </c>
     </row>
     <row r="1737">
-      <c r="A1737" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
+      <c r="A1737" t="inlineStr"/>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateAPR/24</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr"/>
       <c r="D1737" t="inlineStr">
         <is>
-          <t>6.83%</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="E1737" t="inlineStr"/>
@@ -47641,20 +47637,16 @@
       </c>
     </row>
     <row r="1738">
-      <c r="A1738" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
+      <c r="A1738" t="inlineStr"/>
       <c r="B1738" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1738" t="inlineStr"/>
       <c r="D1738" t="inlineStr">
         <is>
-          <t>4.233%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E1738" t="inlineStr"/>
@@ -47743,7 +47735,7 @@
       </c>
       <c r="E1742" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F1742" t="inlineStr">
@@ -47942,7 +47934,7 @@
     <row r="1749">
       <c r="A1749" t="inlineStr">
         <is>
-          <t>Sunday April 27 2025</t>
+          <t>Saturday April 26 2025</t>
         </is>
       </c>
       <c r="B1749" t="inlineStr"/>
@@ -47955,7 +47947,7 @@
     <row r="1750">
       <c r="A1750" t="inlineStr">
         <is>
-          <t>Monday April 28 2025</t>
+          <t>Sunday April 27 2025</t>
         </is>
       </c>
       <c r="B1750" t="inlineStr"/>
@@ -47965,6 +47957,19 @@
       <c r="F1750" t="inlineStr"/>
       <c r="G1750" t="inlineStr"/>
     </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>Monday April 28 2025</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr"/>
+      <c r="C1751" t="inlineStr"/>
+      <c r="D1751" t="inlineStr"/>
+      <c r="E1751" t="inlineStr"/>
+      <c r="F1751" t="inlineStr"/>
+      <c r="G1751" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1751"/>
+  <dimension ref="A1:G1752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47970,6 +47970,31 @@
       <c r="F1751" t="inlineStr"/>
       <c r="G1751" t="inlineStr"/>
     </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>Dallas Fed Manufacturing IndexAPR</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr"/>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>-16.3</t>
+        </is>
+      </c>
+      <c r="E1752" t="inlineStr"/>
+      <c r="F1752" t="inlineStr"/>
+      <c r="G1752" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1752"/>
+  <dimension ref="A1:G1754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47995,6 +47995,48 @@
         </is>
       </c>
     </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr"/>
+      <c r="D1753" t="inlineStr"/>
+      <c r="E1753" t="inlineStr"/>
+      <c r="F1753" t="inlineStr"/>
+      <c r="G1753" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr"/>
+      <c r="D1754" t="inlineStr"/>
+      <c r="E1754" t="inlineStr"/>
+      <c r="F1754" t="inlineStr"/>
+      <c r="G1754" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
